--- a/curation/draft/package13/R13_BC_SDTM_QRS_ADAS-Cog.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_ADAS-Cog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6546299D-A636-462A-ADA4-74E4EBFAB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B98C4-EDF2-4D74-80B4-3F9C2A1254D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_ADAS-Cog'!$A$1:$R$5</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -531,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -802,6 +802,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -1058,28 +1079,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{559C6106-EF6C-4377-B9A5-06A3DB807CEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A71F282A-C2BD-4961-A44E-C98752E45E1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CDBB8C-5821-4E2B-AD03-4C5641024F2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1096,23 +1115,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A71F282A-C2BD-4961-A44E-C98752E45E1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{559C6106-EF6C-4377-B9A5-06A3DB807CEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>